--- a/public/Ministering-CSV-Template.xlsx
+++ b/public/Ministering-CSV-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gideo\Documents\VSCode\ministering-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABEA8968-F0F1-4620-93D3-FF83A1166948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{277539E4-7ADB-459B-B521-89476AC424DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51A075FA-3597-4EFF-A532-1444A2678D6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Unassigned Ministers</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>District 1</t>
+  </si>
+  <si>
+    <t>Instructions:</t>
+  </si>
+  <si>
+    <t>Each Minister needs their own column, with one row between each of the options.</t>
+  </si>
+  <si>
+    <t>Each Member needs their own name, and if they are a priority, you write &lt;Name&gt;, 1</t>
+  </si>
+  <si>
+    <t>The Companionships need all four columns</t>
+  </si>
+  <si>
+    <t>The first column is the ministers names, separated by ";", the second is the names of the members separated by ";", the third is the priority of each member, and the last is the District they are in ("District X")</t>
   </si>
 </sst>
 </file>
@@ -113,8 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4683E2-63BC-4AA1-8C93-CB8931F45633}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +539,58 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
